--- a/backend/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>9d8d85b6-1007-4ab2-a400-52c34df27519</t>
+    <t>e892fe80-fcda-4b08-9223-44c04dcfd308</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/backend/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>e892fe80-fcda-4b08-9223-44c04dcfd308</t>
+    <t>0cf775e5-b4d1-4d69-b681-1a2ebd6408c8</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/backend/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>0cf775e5-b4d1-4d69-b681-1a2ebd6408c8</t>
+    <t>1e43cbdf-1d7b-405a-b38c-68c44c85178b</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/backend/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>1e43cbdf-1d7b-405a-b38c-68c44c85178b</t>
+    <t>dd314229-2b94-4a73-9923-37ad228940e9</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/backend/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>dd314229-2b94-4a73-9923-37ad228940e9</t>
+    <t>56adb450-cfeb-40f0-b315-7ee8ce57a27e</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/backend/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>56adb450-cfeb-40f0-b315-7ee8ce57a27e</t>
+    <t>31510e60-58b8-43f5-972f-ac8fd9141f1f</t>
   </si>
   <si>
     <t>ARIQUEMES</t>
